--- a/players_stats/Jason Thompson.xlsx
+++ b/players_stats/Jason Thompson.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,160 +369,175 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Season</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Tm</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Lg</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Pos</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>GS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>FG</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>FGA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>FG%</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>3P</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>3PA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>3P%</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>2P</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>2PA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>2P%</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>eFG%</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>FTA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>FT%</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ORB</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>DRB</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>TRB</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>AST</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>TOV</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>PTS</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>ShootingHand</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>draftRank</t>
         </is>
@@ -532,294 +547,1354 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1968-69</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>INA</t>
-        </is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>22</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ABA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>.333</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>.000</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>.333</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 185</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 83 </t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>82</v>
+      </c>
+      <c r="I2" t="n">
+        <v>56</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2303</v>
+      </c>
+      <c r="K2" t="n">
+        <v>356</v>
+      </c>
+      <c r="L2" t="n">
+        <v>717</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>8</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>356</v>
+      </c>
+      <c r="R2" t="n">
+        <v>709</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="U2" t="n">
+        <v>198</v>
+      </c>
+      <c r="V2" t="n">
+        <v>286</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6920000000000001</v>
+      </c>
+      <c r="X2" t="n">
+        <v>234</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>372</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>606</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>93</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>59</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>146</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>314</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>910</v>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 113 </t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AG2" t="n">
-        <v>33</v>
+      <c r="AJ2" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>58</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2357</v>
+      </c>
+      <c r="K3" t="n">
+        <v>370</v>
+      </c>
+      <c r="L3" t="n">
+        <v>784</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>369</v>
+      </c>
+      <c r="R3" t="n">
+        <v>774</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="U3" t="n">
+        <v>198</v>
+      </c>
+      <c r="V3" t="n">
+        <v>277</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="X3" t="n">
+        <v>224</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>413</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>637</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>124</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>73</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>139</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>279</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>939</v>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 113 </t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>39</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1748</v>
+      </c>
+      <c r="K4" t="n">
+        <v>271</v>
+      </c>
+      <c r="L4" t="n">
+        <v>534</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>271</v>
+      </c>
+      <c r="R4" t="n">
+        <v>531</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="U4" t="n">
+        <v>121</v>
+      </c>
+      <c r="V4" t="n">
+        <v>200</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="X4" t="n">
+        <v>144</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>310</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>454</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>88</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>99</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>212</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>663</v>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 113 </t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>64</v>
+      </c>
+      <c r="I5" t="n">
+        <v>47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1657</v>
+      </c>
+      <c r="K5" t="n">
+        <v>237</v>
+      </c>
+      <c r="L5" t="n">
+        <v>443</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>237</v>
+      </c>
+      <c r="R5" t="n">
+        <v>441</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="U5" t="n">
+        <v>109</v>
+      </c>
+      <c r="V5" t="n">
+        <v>181</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="X5" t="n">
+        <v>166</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>277</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>443</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>79</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>43</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>68</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>149</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>583</v>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 113 </t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2012-13</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>82</v>
+      </c>
+      <c r="I6" t="n">
+        <v>81</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2285</v>
+      </c>
+      <c r="K6" t="n">
+        <v>374</v>
+      </c>
+      <c r="L6" t="n">
+        <v>745</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>374</v>
+      </c>
+      <c r="R6" t="n">
+        <v>742</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="U6" t="n">
+        <v>143</v>
+      </c>
+      <c r="V6" t="n">
+        <v>206</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.6940000000000001</v>
+      </c>
+      <c r="X6" t="n">
+        <v>172</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>377</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>549</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>84</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>61</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>227</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>891</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 113 </t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2013-14</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>27</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>82</v>
+      </c>
+      <c r="I7" t="n">
+        <v>61</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K7" t="n">
+        <v>251</v>
+      </c>
+      <c r="L7" t="n">
+        <v>496</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>251</v>
+      </c>
+      <c r="R7" t="n">
+        <v>496</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="U7" t="n">
+        <v>84</v>
+      </c>
+      <c r="V7" t="n">
+        <v>145</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="X7" t="n">
+        <v>153</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>374</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>527</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>53</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>56</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>95</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>586</v>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 113 </t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2014-15</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>28</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>81</v>
+      </c>
+      <c r="I8" t="n">
+        <v>63</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="K8" t="n">
+        <v>201</v>
+      </c>
+      <c r="L8" t="n">
+        <v>428</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>201</v>
+      </c>
+      <c r="R8" t="n">
+        <v>427</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="U8" t="n">
+        <v>89</v>
+      </c>
+      <c r="V8" t="n">
+        <v>143</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="X8" t="n">
+        <v>139</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>391</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>530</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>57</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>84</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>239</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>491</v>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 113 </t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>29</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>47</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>471</v>
+      </c>
+      <c r="K9" t="n">
+        <v>52</v>
+      </c>
+      <c r="L9" t="n">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>47</v>
+      </c>
+      <c r="R9" t="n">
+        <v>93</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="U9" t="n">
+        <v>38</v>
+      </c>
+      <c r="V9" t="n">
+        <v>54</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.7040000000000001</v>
+      </c>
+      <c r="X9" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>102</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>134</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>147</v>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 113 </t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>29</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>28</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>179</v>
+      </c>
+      <c r="K10" t="n">
+        <v>20</v>
+      </c>
+      <c r="L10" t="n">
+        <v>42</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>20</v>
+      </c>
+      <c r="R10" t="n">
+        <v>42</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="U10" t="n">
+        <v>20</v>
+      </c>
+      <c r="V10" t="n">
+        <v>32</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>54</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 113 </t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>29</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>19</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>292</v>
+      </c>
+      <c r="K11" t="n">
+        <v>32</v>
+      </c>
+      <c r="L11" t="n">
+        <v>66</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>15</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>51</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="U11" t="n">
+        <v>18</v>
+      </c>
+      <c r="V11" t="n">
+        <v>22</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="X11" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>58</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>87</v>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 113 </t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ABA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>.333</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>.000</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>.333</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 185</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 83 </t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>588</v>
+      </c>
+      <c r="I12" t="n">
+        <v>412</v>
+      </c>
+      <c r="J12" t="n">
+        <v>14819</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2112</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4255</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>42</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2106</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4213</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="U12" t="n">
+        <v>980</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1492</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1264</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2616</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3880</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>635</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>283</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>414</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>747</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1751</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>5210</v>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 113 </t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AG3" t="n">
-        <v>33</v>
+      <c r="AJ12" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
